--- a/data/outputs/management_altmetric/66.xlsx
+++ b/data/outputs/management_altmetric/66.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE230"/>
+  <dimension ref="A1:CF230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1029,6 +1034,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1273,6 +1281,9 @@
       </c>
       <c r="CE3" t="n">
         <v>0</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="4">
@@ -1501,6 +1512,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1752,6 +1766,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2009,6 +2026,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2240,6 +2260,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2485,6 +2508,9 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2714,6 +2740,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2949,6 +2978,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3202,6 +3234,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>57.192</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3441,6 +3476,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3676,6 +3714,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3931,6 +3972,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4172,6 +4216,9 @@
         <v>0</v>
       </c>
       <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4401,6 +4448,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4638,6 +4688,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4875,6 +4928,9 @@
         <v>0</v>
       </c>
       <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5104,6 +5160,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5349,6 +5408,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5586,6 +5648,9 @@
         <v>0</v>
       </c>
       <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5815,6 +5880,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6042,6 +6110,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6269,6 +6340,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6517,6 +6591,9 @@
       </c>
       <c r="CE25" t="n">
         <v>0</v>
+      </c>
+      <c r="CF25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -6745,6 +6822,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6988,6 +7068,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7241,6 +7324,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7478,6 +7564,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7717,6 +7806,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7960,6 +8052,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8199,6 +8294,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8446,6 +8544,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8693,6 +8794,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8936,6 +9040,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9191,6 +9298,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9440,6 +9550,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9687,6 +9800,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9930,6 +10046,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10171,6 +10290,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>14.25</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10412,6 +10534,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10661,6 +10786,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10918,6 +11046,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11167,6 +11298,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11408,6 +11542,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11653,6 +11790,9 @@
         <v>0</v>
       </c>
       <c r="CE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11892,6 +12032,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12133,6 +12276,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12376,6 +12522,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12617,6 +12766,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12864,6 +13016,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13103,6 +13258,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13358,6 +13516,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13605,6 +13766,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -13860,6 +14024,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14108,6 +14275,9 @@
       </c>
       <c r="CE56" t="n">
         <v>0</v>
+      </c>
+      <c r="CF56" t="n">
+        <v>3.55</v>
       </c>
     </row>
     <row r="57">
@@ -14336,6 +14506,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14571,6 +14744,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -14815,6 +14991,9 @@
       </c>
       <c r="CE59" t="n">
         <v>0</v>
+      </c>
+      <c r="CF59" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="60">
@@ -15043,6 +15222,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15274,6 +15456,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15501,6 +15686,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -15728,6 +15916,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -15955,6 +16146,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16182,6 +16376,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16429,6 +16626,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -16660,6 +16860,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -16905,6 +17108,9 @@
       <c r="CE68" t="n">
         <v>1</v>
       </c>
+      <c r="CF68" t="n">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17154,6 +17360,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17403,6 +17612,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -17652,6 +17864,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -17897,6 +18112,9 @@
         <v>0</v>
       </c>
       <c r="CE72" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18134,6 +18352,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18369,6 +18590,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -18626,6 +18850,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -18877,6 +19104,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19126,6 +19356,9 @@
       <c r="CE77" t="n">
         <v>1</v>
       </c>
+      <c r="CF77" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19365,6 +19598,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -19604,6 +19840,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -19851,6 +20090,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20108,6 +20350,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20361,6 +20606,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -20612,6 +20860,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -20857,6 +21108,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21097,6 +21351,9 @@
       </c>
       <c r="CE85" t="n">
         <v>0</v>
+      </c>
+      <c r="CF85" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="86">
@@ -21325,6 +21582,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -21556,6 +21816,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -21799,6 +22062,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22040,6 +22306,9 @@
         <v>0</v>
       </c>
       <c r="CE89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22269,6 +22538,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -22518,6 +22790,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -22765,6 +23040,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23014,6 +23292,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -23257,6 +23538,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -23502,6 +23786,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -23743,6 +24030,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -23982,6 +24272,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -24231,6 +24524,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -24480,6 +24776,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>2.45</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -24727,6 +25026,9 @@
       <c r="CE100" t="n">
         <v>0</v>
       </c>
+      <c r="CF100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -24982,6 +25284,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -25231,6 +25536,9 @@
       <c r="CE102" t="n">
         <v>2</v>
       </c>
+      <c r="CF102" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -25488,6 +25796,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -25741,6 +26052,9 @@
       <c r="CE104" t="n">
         <v>0</v>
       </c>
+      <c r="CF104" t="n">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -25982,6 +26296,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -26231,6 +26548,9 @@
       <c r="CE106" t="n">
         <v>1</v>
       </c>
+      <c r="CF106" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -26478,6 +26798,9 @@
       <c r="CE107" t="n">
         <v>0</v>
       </c>
+      <c r="CF107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -26727,6 +27050,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -26972,6 +27298,9 @@
       <c r="CE109" t="n">
         <v>0</v>
       </c>
+      <c r="CF109" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -27211,6 +27540,9 @@
       <c r="CE110" t="n">
         <v>0</v>
       </c>
+      <c r="CF110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -27458,6 +27790,9 @@
       <c r="CE111" t="n">
         <v>0</v>
       </c>
+      <c r="CF111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -27711,6 +28046,9 @@
       <c r="CE112" t="n">
         <v>0</v>
       </c>
+      <c r="CF112" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -27960,6 +28298,9 @@
       <c r="CE113" t="n">
         <v>1</v>
       </c>
+      <c r="CF113" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -28201,6 +28542,9 @@
       <c r="CE114" t="n">
         <v>0</v>
       </c>
+      <c r="CF114" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -28458,6 +28802,9 @@
       <c r="CE115" t="n">
         <v>0</v>
       </c>
+      <c r="CF115" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -28701,6 +29048,9 @@
       <c r="CE116" t="n">
         <v>0</v>
       </c>
+      <c r="CF116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -28952,6 +29302,9 @@
       <c r="CE117" t="n">
         <v>0</v>
       </c>
+      <c r="CF117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -29191,6 +29544,9 @@
       <c r="CE118" t="n">
         <v>0</v>
       </c>
+      <c r="CF118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -29446,6 +29802,9 @@
       <c r="CE119" t="n">
         <v>0</v>
       </c>
+      <c r="CF119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -29699,6 +30058,9 @@
       <c r="CE120" t="n">
         <v>0</v>
       </c>
+      <c r="CF120" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -29955,6 +30317,9 @@
       </c>
       <c r="CE121" t="n">
         <v>0</v>
+      </c>
+      <c r="CF121" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="122">
@@ -30185,6 +30550,9 @@
       <c r="CE122" t="n">
         <v>0</v>
       </c>
+      <c r="CF122" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -30430,6 +30798,9 @@
         <v>0</v>
       </c>
       <c r="CE123" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30659,6 +31030,9 @@
       <c r="CE124" t="n">
         <v>0</v>
       </c>
+      <c r="CF124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -30886,6 +31260,9 @@
       <c r="CE125" t="n">
         <v>0</v>
       </c>
+      <c r="CF125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -31135,6 +31512,9 @@
       <c r="CE126" t="n">
         <v>0</v>
       </c>
+      <c r="CF126" t="n">
+        <v>3.25</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -31382,6 +31762,9 @@
       <c r="CE127" t="n">
         <v>0</v>
       </c>
+      <c r="CF127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -31633,6 +32016,9 @@
       <c r="CE128" t="n">
         <v>0</v>
       </c>
+      <c r="CF128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -31880,6 +32266,9 @@
       <c r="CE129" t="n">
         <v>0</v>
       </c>
+      <c r="CF129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -32129,6 +32518,9 @@
       <c r="CE130" t="n">
         <v>0</v>
       </c>
+      <c r="CF130" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -32381,6 +32773,9 @@
       </c>
       <c r="CE131" t="n">
         <v>0</v>
+      </c>
+      <c r="CF131" t="n">
+        <v>343.3</v>
       </c>
     </row>
     <row r="132">
@@ -32609,6 +33004,9 @@
       <c r="CE132" t="n">
         <v>0</v>
       </c>
+      <c r="CF132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -32850,6 +33248,9 @@
       <c r="CE133" t="n">
         <v>0</v>
       </c>
+      <c r="CF133" t="n">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -33097,6 +33498,9 @@
       <c r="CE134" t="n">
         <v>0</v>
       </c>
+      <c r="CF134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -33352,6 +33756,9 @@
       <c r="CE135" t="n">
         <v>0</v>
       </c>
+      <c r="CF135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -33595,6 +34002,9 @@
       <c r="CE136" t="n">
         <v>0</v>
       </c>
+      <c r="CF136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -33836,6 +34246,9 @@
       <c r="CE137" t="n">
         <v>0</v>
       </c>
+      <c r="CF137" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -34077,6 +34490,9 @@
       <c r="CE138" t="n">
         <v>0</v>
       </c>
+      <c r="CF138" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -34326,6 +34742,9 @@
       <c r="CE139" t="n">
         <v>0</v>
       </c>
+      <c r="CF139" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -34569,6 +34988,9 @@
       <c r="CE140" t="n">
         <v>0</v>
       </c>
+      <c r="CF140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -34818,6 +35240,9 @@
       <c r="CE141" t="n">
         <v>0</v>
       </c>
+      <c r="CF141" t="n">
+        <v>11.4</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -35059,6 +35484,9 @@
       <c r="CE142" t="n">
         <v>0</v>
       </c>
+      <c r="CF142" t="n">
+        <v>4.75</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -35306,6 +35734,9 @@
       <c r="CE143" t="n">
         <v>0</v>
       </c>
+      <c r="CF143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -35555,6 +35986,9 @@
       <c r="CE144" t="n">
         <v>0</v>
       </c>
+      <c r="CF144" t="n">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -35802,6 +36236,9 @@
       <c r="CE145" t="n">
         <v>0</v>
       </c>
+      <c r="CF145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -36049,6 +36486,9 @@
       <c r="CE146" t="n">
         <v>0</v>
       </c>
+      <c r="CF146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -36288,6 +36728,9 @@
       <c r="CE147" t="n">
         <v>0</v>
       </c>
+      <c r="CF147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -36529,6 +36972,9 @@
       <c r="CE148" t="n">
         <v>1</v>
       </c>
+      <c r="CF148" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -36778,6 +37224,9 @@
       <c r="CE149" t="n">
         <v>0</v>
       </c>
+      <c r="CF149" t="n">
+        <v>2.95</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -37027,6 +37476,9 @@
       <c r="CE150" t="n">
         <v>0</v>
       </c>
+      <c r="CF150" t="n">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -37274,6 +37726,9 @@
       <c r="CE151" t="n">
         <v>0</v>
       </c>
+      <c r="CF151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -37527,6 +37982,9 @@
       <c r="CE152" t="n">
         <v>0</v>
       </c>
+      <c r="CF152" t="n">
+        <v>4.35</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -37780,6 +38238,9 @@
       <c r="CE153" t="n">
         <v>0</v>
       </c>
+      <c r="CF153" t="n">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -38017,6 +38478,9 @@
         <v>0</v>
       </c>
       <c r="CE154" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38246,6 +38710,9 @@
       <c r="CE155" t="n">
         <v>0</v>
       </c>
+      <c r="CF155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -38495,6 +38962,9 @@
       <c r="CE156" t="n">
         <v>0</v>
       </c>
+      <c r="CF156" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -38734,6 +39204,9 @@
       <c r="CE157" t="n">
         <v>0</v>
       </c>
+      <c r="CF157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -38985,6 +39458,9 @@
       <c r="CE158" t="n">
         <v>0</v>
       </c>
+      <c r="CF158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -39232,6 +39708,9 @@
       <c r="CE159" t="n">
         <v>0</v>
       </c>
+      <c r="CF159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -39469,6 +39948,9 @@
         <v>0</v>
       </c>
       <c r="CE160" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39698,6 +40180,9 @@
       <c r="CE161" t="n">
         <v>0</v>
       </c>
+      <c r="CF161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -39939,6 +40424,9 @@
       <c r="CE162" t="n">
         <v>0</v>
       </c>
+      <c r="CF162" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -40182,6 +40670,9 @@
       <c r="CE163" t="n">
         <v>0</v>
       </c>
+      <c r="CF163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -40421,6 +40912,9 @@
       <c r="CE164" t="n">
         <v>0</v>
       </c>
+      <c r="CF164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -40669,6 +41163,9 @@
       </c>
       <c r="CE165" t="n">
         <v>0</v>
+      </c>
+      <c r="CF165" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="166">
@@ -40897,6 +41394,9 @@
       <c r="CE166" t="n">
         <v>0</v>
       </c>
+      <c r="CF166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -41136,6 +41636,9 @@
       <c r="CE167" t="n">
         <v>0</v>
       </c>
+      <c r="CF167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -41383,6 +41886,9 @@
       <c r="CE168" t="n">
         <v>0</v>
       </c>
+      <c r="CF168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -41626,6 +42132,9 @@
       <c r="CE169" t="n">
         <v>0</v>
       </c>
+      <c r="CF169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -41865,6 +42374,9 @@
       <c r="CE170" t="n">
         <v>0</v>
       </c>
+      <c r="CF170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -42108,6 +42620,9 @@
       <c r="CE171" t="n">
         <v>0</v>
       </c>
+      <c r="CF171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -42349,6 +42864,9 @@
       <c r="CE172" t="n">
         <v>0</v>
       </c>
+      <c r="CF172" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -42588,6 +43106,9 @@
       <c r="CE173" t="n">
         <v>0</v>
       </c>
+      <c r="CF173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -42827,6 +43348,9 @@
       <c r="CE174" t="n">
         <v>0</v>
       </c>
+      <c r="CF174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -43074,6 +43598,9 @@
       <c r="CE175" t="n">
         <v>0</v>
       </c>
+      <c r="CF175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -43321,6 +43848,9 @@
       <c r="CE176" t="n">
         <v>0</v>
       </c>
+      <c r="CF176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -43568,6 +44098,9 @@
       <c r="CE177" t="n">
         <v>0</v>
       </c>
+      <c r="CF177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -43807,6 +44340,9 @@
       <c r="CE178" t="n">
         <v>0</v>
       </c>
+      <c r="CF178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -44056,6 +44592,9 @@
       <c r="CE179" t="n">
         <v>0</v>
       </c>
+      <c r="CF179" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -44303,6 +44842,9 @@
       <c r="CE180" t="n">
         <v>0</v>
       </c>
+      <c r="CF180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -44550,6 +45092,9 @@
       <c r="CE181" t="n">
         <v>0</v>
       </c>
+      <c r="CF181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -44795,6 +45340,9 @@
       <c r="CE182" t="n">
         <v>0</v>
       </c>
+      <c r="CF182" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -45042,6 +45590,9 @@
       <c r="CE183" t="n">
         <v>0</v>
       </c>
+      <c r="CF183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -45291,6 +45842,9 @@
       <c r="CE184" t="n">
         <v>0</v>
       </c>
+      <c r="CF184" t="n">
+        <v>21.258</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -45536,6 +46090,9 @@
       <c r="CE185" t="n">
         <v>0</v>
       </c>
+      <c r="CF185" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -45777,6 +46334,9 @@
       <c r="CE186" t="n">
         <v>0</v>
       </c>
+      <c r="CF186" t="n">
+        <v>3.85</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -46022,6 +46582,9 @@
       <c r="CE187" t="n">
         <v>0</v>
       </c>
+      <c r="CF187" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -46269,6 +46832,9 @@
       <c r="CE188" t="n">
         <v>0</v>
       </c>
+      <c r="CF188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -46512,6 +47078,9 @@
       <c r="CE189" t="n">
         <v>0</v>
       </c>
+      <c r="CF189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -46759,6 +47328,9 @@
       <c r="CE190" t="n">
         <v>0</v>
       </c>
+      <c r="CF190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -47006,6 +47578,9 @@
       <c r="CE191" t="n">
         <v>0</v>
       </c>
+      <c r="CF191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -47253,6 +47828,9 @@
       <c r="CE192" t="n">
         <v>0</v>
       </c>
+      <c r="CF192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -47502,6 +48080,9 @@
       <c r="CE193" t="n">
         <v>0</v>
       </c>
+      <c r="CF193" t="n">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -47741,6 +48322,9 @@
       <c r="CE194" t="n">
         <v>0</v>
       </c>
+      <c r="CF194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -47980,6 +48564,9 @@
       <c r="CE195" t="n">
         <v>0</v>
       </c>
+      <c r="CF195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -48223,6 +48810,9 @@
       <c r="CE196" t="n">
         <v>0</v>
       </c>
+      <c r="CF196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -48466,6 +49056,9 @@
       <c r="CE197" t="n">
         <v>0</v>
       </c>
+      <c r="CF197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -48709,6 +49302,9 @@
       <c r="CE198" t="n">
         <v>0</v>
       </c>
+      <c r="CF198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -48962,6 +49558,9 @@
       <c r="CE199" t="n">
         <v>0</v>
       </c>
+      <c r="CF199" t="n">
+        <v>336.78</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -49201,6 +49800,9 @@
       <c r="CE200" t="n">
         <v>0</v>
       </c>
+      <c r="CF200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -49448,6 +50050,9 @@
       <c r="CE201" t="n">
         <v>0</v>
       </c>
+      <c r="CF201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -49685,6 +50290,9 @@
         <v>0</v>
       </c>
       <c r="CE202" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -49914,6 +50522,9 @@
       <c r="CE203" t="n">
         <v>0</v>
       </c>
+      <c r="CF203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -50161,6 +50772,9 @@
       <c r="CE204" t="n">
         <v>0</v>
       </c>
+      <c r="CF204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -50402,6 +51016,9 @@
       <c r="CE205" t="n">
         <v>0</v>
       </c>
+      <c r="CF205" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -50647,6 +51264,9 @@
       <c r="CE206" t="n">
         <v>0</v>
       </c>
+      <c r="CF206" t="n">
+        <v>12.9</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -50886,6 +51506,9 @@
       <c r="CE207" t="n">
         <v>0</v>
       </c>
+      <c r="CF207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -51135,6 +51758,9 @@
       <c r="CE208" t="n">
         <v>0</v>
       </c>
+      <c r="CF208" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -51382,6 +52008,9 @@
       <c r="CE209" t="n">
         <v>0</v>
       </c>
+      <c r="CF209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -51629,6 +52258,9 @@
       <c r="CE210" t="n">
         <v>0</v>
       </c>
+      <c r="CF210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -51876,6 +52508,9 @@
       <c r="CE211" t="n">
         <v>0</v>
       </c>
+      <c r="CF211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -52115,6 +52750,9 @@
       <c r="CE212" t="n">
         <v>0</v>
       </c>
+      <c r="CF212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -52354,6 +52992,9 @@
       <c r="CE213" t="n">
         <v>0</v>
       </c>
+      <c r="CF213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -52593,6 +53234,9 @@
       <c r="CE214" t="n">
         <v>0</v>
       </c>
+      <c r="CF214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -52840,6 +53484,9 @@
       <c r="CE215" t="n">
         <v>0</v>
       </c>
+      <c r="CF215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -53089,6 +53736,9 @@
       <c r="CE216" t="n">
         <v>1</v>
       </c>
+      <c r="CF216" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -53328,6 +53978,9 @@
       <c r="CE217" t="n">
         <v>0</v>
       </c>
+      <c r="CF217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -53575,6 +54228,9 @@
       <c r="CE218" t="n">
         <v>0</v>
       </c>
+      <c r="CF218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -53824,6 +54480,9 @@
       <c r="CE219" t="n">
         <v>0</v>
       </c>
+      <c r="CF219" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -54065,6 +54724,9 @@
       <c r="CE220" t="n">
         <v>0</v>
       </c>
+      <c r="CF220" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -54304,6 +54966,9 @@
       <c r="CE221" t="n">
         <v>0</v>
       </c>
+      <c r="CF221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -54543,6 +55208,9 @@
       <c r="CE222" t="n">
         <v>0</v>
       </c>
+      <c r="CF222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -54792,6 +55460,9 @@
       <c r="CE223" t="n">
         <v>0</v>
       </c>
+      <c r="CF223" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -55031,6 +55702,9 @@
       <c r="CE224" t="n">
         <v>0</v>
       </c>
+      <c r="CF224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -55268,6 +55942,9 @@
         <v>0</v>
       </c>
       <c r="CE225" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -55505,6 +56182,9 @@
       <c r="CE226" t="n">
         <v>0</v>
       </c>
+      <c r="CF226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -55748,6 +56428,9 @@
       <c r="CE227" t="n">
         <v>0</v>
       </c>
+      <c r="CF227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -55987,6 +56670,9 @@
       <c r="CE228" t="n">
         <v>0</v>
       </c>
+      <c r="CF228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -56230,6 +56916,9 @@
       <c r="CE229" t="n">
         <v>0</v>
       </c>
+      <c r="CF229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -56469,6 +57158,9 @@
       <c r="CE230" t="n">
         <v>0</v>
       </c>
+      <c r="CF230" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
